--- a/Documentation/Tables & Charts/Requirements.xlsx
+++ b/Documentation/Tables & Charts/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Req" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>Implemented</t>
   </si>
@@ -43,16 +43,9 @@
     <t>Landscape</t>
   </si>
   <si>
-    <t xml:space="preserve">Realistic, key buildings with interiors and/or exteriors, Qu’Appelle Valley area
-</t>
-  </si>
-  <si>
     <t>Non-Playable Characters (NPCs)</t>
   </si>
   <si>
-    <t xml:space="preserve">Two main </t>
-  </si>
-  <si>
     <t>Dynamic Menu</t>
   </si>
   <si>
@@ -102,6 +95,193 @@
   </si>
   <si>
     <t>More Details</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Added more characters throughout development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful </t>
+  </si>
+  <si>
+    <t>Better AI, more unique looking characters, etc.</t>
+  </si>
+  <si>
+    <t>Main Menu Changes as player progresses through game</t>
+  </si>
+  <si>
+    <t>Made the most sense with how the game plays</t>
+  </si>
+  <si>
+    <t>Weapons, items, health, etc. can be upgraded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decided on 3 main collectables </t>
+  </si>
+  <si>
+    <t>Ease of creation, not overwhelming for player, etc.</t>
+  </si>
+  <si>
+    <t>Better models for the collectables</t>
+  </si>
+  <si>
+    <t>Decided on having multiple side objectives, but at most one per level</t>
+  </si>
+  <si>
+    <t>Cut down on unneeded development, added more emphasis for story on collectables</t>
+  </si>
+  <si>
+    <t>More indepth side objectives, possibility of specific levels for some</t>
+  </si>
+  <si>
+    <t>Main Ghost,  Main Demon,
+ Multiple NPCs with Varying AI</t>
+  </si>
+  <si>
+    <t>Added more to the game</t>
+  </si>
+  <si>
+    <t>Realistic, key buildings with interiors and/or exteriors, Qu’Appelle Valley area</t>
+  </si>
+  <si>
+    <t>Added more unique buildings, added a monument as well, landscape not as good as planned</t>
+  </si>
+  <si>
+    <t>Buildings and monuments for more related things and to make up for landscape</t>
+  </si>
+  <si>
+    <t>Better landscapes, better materials used, even more realistic environments</t>
+  </si>
+  <si>
+    <t>Changed from a visually moving sky/weather to discrete visual changes (Four specific menu looks)</t>
+  </si>
+  <si>
+    <t>Difficulty in implementing day/night system, easiest to implement other things and still look good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even more dynamic menus, weather, day/night, etc. </t>
+  </si>
+  <si>
+    <t>Such as pistol, flashlight, etc.</t>
+  </si>
+  <si>
+    <t>Decided on flashlight, pistol, rifle, cross, and a knife</t>
+  </si>
+  <si>
+    <t>Keep it simple, 2 ranged weapons, 2 close combat, and 1 utility item</t>
+  </si>
+  <si>
+    <t>Better looking items, better animations for their use, etc.</t>
+  </si>
+  <si>
+    <t>Include more upgrades currently only for 4 catagories</t>
+  </si>
+  <si>
+    <t>In the form of perks the user can upgrade by getting upgrade pickups. Upgrades have 0-6 choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ability to save progress and return to that point without penalty </t>
+  </si>
+  <si>
+    <t>Saving and loading will return player to initial starting point of a level</t>
+  </si>
+  <si>
+    <t>Difficulty of saving player location and other variables</t>
+  </si>
+  <si>
+    <t>Multiple saves available, save player information so on load pickup exactly where left off</t>
+  </si>
+  <si>
+    <t>Main menu, Opening, Main Game, Credits, Some Music &amp; Sound Effects</t>
+  </si>
+  <si>
+    <t>Took out an "opening" scene, which would most likely be an animation</t>
+  </si>
+  <si>
+    <t>Time restrictions, very time consuming to implement, high amount of difficulty</t>
+  </si>
+  <si>
+    <t>Letters, texts, messages, etc.  Objects that relate to that area</t>
+  </si>
+  <si>
+    <t>Polish more to make the start to finish better, add cut scenese, etc.</t>
+  </si>
+  <si>
+    <t>A set of side objectives separate to the main objectives</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Playable on Xbox, Playstation, etc.</t>
+  </si>
+  <si>
+    <t>Harder and different NPC AI  Level changes</t>
+  </si>
+  <si>
+    <t>Complete set of audio and more professionaly done</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Voice acting done for NPCs, cutscenes, etc.</t>
+  </si>
+  <si>
+    <t>There was some voice recording for the audio log pickups</t>
+  </si>
+  <si>
+    <t>Audio logs is main collectable and needed voice recordings with them</t>
+  </si>
+  <si>
+    <t>Add more items than the base ones done in main requirements</t>
+  </si>
+  <si>
+    <t>Not Attempted</t>
+  </si>
+  <si>
+    <t>Better landscape, better attention to detail, better animations, etc.</t>
+  </si>
+  <si>
+    <t>Not Finished</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Either in game, something the player has to do, in texts, trophies, etc.</t>
+  </si>
+  <si>
+    <t>When the player completes specific tasks, give them the award</t>
+  </si>
+  <si>
+    <t>Drafted up a table for this and have multiple ready to be implemented</t>
+  </si>
+  <si>
+    <t>Greatly out of scope and may not be implemented at all, even in future work</t>
+  </si>
+  <si>
+    <t>Drafted up a multiple easter eggs and references that can be implemented</t>
+  </si>
+  <si>
+    <t>Currently, level changes does not make sense nor does having different AI. No plans to implement this in future work</t>
+  </si>
+  <si>
+    <t>Still plan to implement  in future work, but  prefer to get other objectives done first</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Currently don't see a need to add more items</t>
+  </si>
+  <si>
+    <t>More audio, professionaly done, done by more people, etc.</t>
+  </si>
+  <si>
+    <t>Details are always getting better with better knowledge of the engine and other softwar, and game development</t>
   </si>
 </sst>
 </file>
@@ -141,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +352,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -197,7 +395,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -261,8 +459,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,13 +503,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -311,6 +569,22 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -342,6 +616,22 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,32 +961,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:8">
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="40" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="40" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,123 +1002,215 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="50" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="90" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="80" customHeight="1">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="50" customHeight="1">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="100" customHeight="1">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="82" customHeight="1">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="50" customHeight="1">
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="80" customHeight="1">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="50" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="81" customHeight="1">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="50" customHeight="1">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="50" customHeight="1">
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="50" customHeight="1">
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="80" customHeight="1">
       <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="80" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="90" customHeight="1">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="50" customHeight="1">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="50" customHeight="1">
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -846,30 +1227,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="40" customHeight="1">
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -886,107 +1275,219 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="50" customHeight="1">
+    <row r="5" spans="2:9" ht="100" customHeight="1">
       <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="100" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="100" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="105" customHeight="1">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="50" customHeight="1">
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="50" customHeight="1">
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="100" customHeight="1">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="50" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="100" customHeight="1">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="50" customHeight="1">
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="100" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="50" customHeight="1">
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="108" customHeight="1">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="50" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="50" customHeight="1">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
